--- a/src/test/resources/inputData/Data.xlsx
+++ b/src/test/resources/inputData/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\git\testNGFramework\src\test\resources\inputData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tek school\git\testNGFramework\src\test\resources\inputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE79AA7C-0D08-4B04-A53F-0F45FA533C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BDEAE0-C19C-4F5D-88FA-1CF69BCDD36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="2400" windowWidth="25050" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="3" r:id="rId1"/>
@@ -25,73 +25,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>eagles@tekschool.us</t>
-  </si>
-  <si>
-    <t>eagles</t>
-  </si>
-  <si>
-    <t>sample  B 1</t>
-  </si>
-  <si>
-    <t>sample  B 2</t>
-  </si>
-  <si>
-    <t>sample C  1</t>
-  </si>
-  <si>
-    <t>sample C  2</t>
-  </si>
-  <si>
-    <t>sample  B 3</t>
-  </si>
-  <si>
-    <t>sample C  3</t>
-  </si>
-  <si>
-    <t>sample  B 4</t>
-  </si>
-  <si>
-    <t>sample C  4</t>
-  </si>
-  <si>
-    <t>sample  B 5</t>
-  </si>
-  <si>
-    <t>sample C  5</t>
-  </si>
-  <si>
-    <t>sample  B 6</t>
-  </si>
-  <si>
-    <t>sample C  6</t>
-  </si>
-  <si>
-    <t>sample  B 7</t>
-  </si>
-  <si>
-    <t>sample C  7</t>
-  </si>
-  <si>
-    <t>sample  B 8</t>
-  </si>
-  <si>
-    <t>sample C  8</t>
-  </si>
-  <si>
-    <t>sample  B 9</t>
-  </si>
-  <si>
-    <t>sample C  9</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+  <si>
+    <t>cali123</t>
+  </si>
+  <si>
+    <t>va@tekschool.us</t>
+  </si>
+  <si>
+    <t>va123</t>
+  </si>
+  <si>
+    <t>ny@tekschool.us</t>
+  </si>
+  <si>
+    <t>ny123</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>cali@tekschool.us</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +62,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -123,13 +92,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -408,129 +380,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE6E8424-6FA1-4C5F-8DD1-20E60EA41288}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="3" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.1015625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="23.47265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4</v>
-      </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
         <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{331B035F-A004-4097-AE5F-5E78ADD6BBF9}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{198C1D48-8445-44AC-81AC-B8BA35704142}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{EEFD543F-0933-49EC-A5F9-4DAF209A30AD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>